--- a/data_craw/quarter/income_statement_quarter/nvb.xlsx
+++ b/data_craw/quarter/income_statement_quarter/nvb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -535,13 +535,13 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1573109000000</v>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
-        <v>1573109000000</v>
-      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
     </row>
@@ -560,13 +560,13 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1092205000000</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
-        <v>1092205000000</v>
-      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
     </row>
@@ -577,51 +577,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9932000000</v>
+        <v>21439000000</v>
       </c>
       <c r="C4" t="n">
-        <v>87386000000</v>
+        <v>57156000000</v>
       </c>
       <c r="D4" t="n">
-        <v>20444000000</v>
+        <v>7954000000</v>
       </c>
       <c r="E4" t="n">
-        <v>21269000000</v>
+        <v>8574000000</v>
       </c>
       <c r="F4" t="n">
-        <v>21439000000</v>
+        <v>18264000000</v>
       </c>
       <c r="G4" t="n">
-        <v>57156000000</v>
+        <v>26030000000</v>
       </c>
       <c r="H4" t="n">
-        <v>7954000000</v>
+        <v>19362000000</v>
       </c>
       <c r="I4" t="n">
-        <v>8574000000</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18264000000</v>
-      </c>
+        <v>11810000000</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>26030000000</v>
+        <v>17502000000</v>
       </c>
       <c r="L4" t="n">
-        <v>19362000000</v>
+        <v>6770000000</v>
       </c>
       <c r="M4" t="n">
-        <v>11810000000</v>
+        <v>15083000000</v>
       </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>17502000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6770000000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>15083000000</v>
-      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -630,51 +622,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20604000000</v>
+        <v>15969000000</v>
       </c>
       <c r="C5" t="n">
-        <v>88921000000</v>
+        <v>49004000000</v>
       </c>
       <c r="D5" t="n">
-        <v>28109000000</v>
+        <v>14358000000</v>
       </c>
       <c r="E5" t="n">
-        <v>23016000000</v>
+        <v>17807000000</v>
       </c>
       <c r="F5" t="n">
-        <v>15969000000</v>
+        <v>66938000000</v>
       </c>
       <c r="G5" t="n">
-        <v>49004000000</v>
+        <v>978000000</v>
       </c>
       <c r="H5" t="n">
-        <v>14358000000</v>
+        <v>15720000000</v>
       </c>
       <c r="I5" t="n">
-        <v>17807000000</v>
-      </c>
-      <c r="J5" t="n">
-        <v>66938000000</v>
-      </c>
+        <v>4411000000</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>978000000</v>
+        <v>9940000000</v>
       </c>
       <c r="L5" t="n">
-        <v>15720000000</v>
+        <v>18758000000</v>
       </c>
       <c r="M5" t="n">
-        <v>4411000000</v>
+        <v>42162000000</v>
       </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
-        <v>9940000000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>18758000000</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>42162000000</v>
-      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -691,13 +675,13 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>149000000</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
-        <v>149000000</v>
-      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
     </row>
@@ -708,51 +692,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2550000000</v>
+        <v>2792000000</v>
       </c>
       <c r="C7" t="n">
-        <v>24138000000</v>
+        <v>-19936000000</v>
       </c>
       <c r="D7" t="n">
-        <v>11979000000</v>
+        <v>21619000000</v>
       </c>
       <c r="E7" t="n">
-        <v>6377000000</v>
+        <v>78938000000</v>
       </c>
       <c r="F7" t="n">
-        <v>2792000000</v>
+        <v>63868000000</v>
       </c>
       <c r="G7" t="n">
-        <v>-19936000000</v>
+        <v>-163025000000</v>
       </c>
       <c r="H7" t="n">
-        <v>21619000000</v>
+        <v>20378000000</v>
       </c>
       <c r="I7" t="n">
-        <v>78938000000</v>
-      </c>
-      <c r="J7" t="n">
-        <v>63868000000</v>
-      </c>
+        <v>-5144000000</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>-163025000000</v>
+        <v>180963000000</v>
       </c>
       <c r="L7" t="n">
-        <v>20378000000</v>
+        <v>4408000000</v>
       </c>
       <c r="M7" t="n">
-        <v>-5144000000</v>
+        <v>6010000000</v>
       </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
-        <v>180963000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4408000000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>6010000000</v>
-      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
